--- a/inst/pr_rek_irk.xlsx
+++ b/inst/pr_rek_irk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zajac/Dropbox/PEJK/ASIA/dane do testowania/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zajac/Dropbox/PEJK/ASIA/Pakiet ASIA/ASIA1/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A13D7-09E0-A64C-8D0A-D44C38625117}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86107398-5898-8248-8A3F-775A483E9928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26180" yWindow="1740" windowWidth="11300" windowHeight="7540" xr2:uid="{D26EEBDF-B123-8049-8712-BE9D6DCFC7A4}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B18322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/pr_rek_irk.xlsx
+++ b/inst/pr_rek_irk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zajac/Dropbox/PEJK/ASIA/Pakiet ASIA/ASIA1/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86107398-5898-8248-8A3F-775A483E9928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC03532-9880-AF4A-98F4-30BAE38D3786}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26180" yWindow="1740" windowWidth="11300" windowHeight="7540" xr2:uid="{D26EEBDF-B123-8049-8712-BE9D6DCFC7A4}"/>
+    <workbookView xWindow="960" yWindow="540" windowWidth="11240" windowHeight="10500" xr2:uid="{D26EEBDF-B123-8049-8712-BE9D6DCFC7A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C86C06-145D-9448-94BD-52CB061B997F}">
   <dimension ref="A1:B18322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
